--- a/Контрольные на 4-й семестр/Управление человеческими ресурсами/Расчеты.xlsx
+++ b/Контрольные на 4-й семестр/Управление человеческими ресурсами/Расчеты.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Задача 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -230,6 +229,76 @@
   <si>
     <t>лет</t>
   </si>
+  <si>
+    <t>1 Среднегодовой убыток, причиненный предприятию текучестью вспомогательных работников, в том числе.</t>
+  </si>
+  <si>
+    <t>грн.</t>
+  </si>
+  <si>
+    <t>- потери, связанные с простоями основных работников из-за недостатка вспомогательных.</t>
+  </si>
+  <si>
+    <t>- потери на обучение новых работников</t>
+  </si>
+  <si>
+    <t>- потери на набор</t>
+  </si>
+  <si>
+    <t>- доплаты</t>
+  </si>
+  <si>
+    <t>2 Коэффициент текучести  вспомогательных работников:</t>
+  </si>
+  <si>
+    <t>- до внедрения мероприятий</t>
+  </si>
+  <si>
+    <t>- после внедрения мероприятий</t>
+  </si>
+  <si>
+    <t>3 одноразовые расходы на внедрение мероприятий</t>
+  </si>
+  <si>
+    <t>Годовая экономия от сокращения текучести, грн</t>
+  </si>
+  <si>
+    <r>
+      <t>Э</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>64 863.7</t>
+  </si>
+  <si>
+    <t>75 598.6</t>
+  </si>
+  <si>
+    <t>Тед</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,11 +316,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -308,7 +394,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -326,6 +412,21 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -347,6 +448,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -492,6 +606,30 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -503,94 +641,126 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -894,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView topLeftCell="C5" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -902,7 +1072,7 @@
   <cols>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -910,13 +1080,13 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -924,283 +1094,283 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="2:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>13200</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>8800</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>46200</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>2700</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>2816</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>374</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>2640</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>253</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>4365</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>68970</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="24">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="26">
         <f>(E7+E8+E9+E10+E11)/E5</f>
         <v>4.1462121212121215</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="28">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="20">
         <f>E5-E6</f>
         <v>4400</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="30">
         <v>3</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="18">
         <f>C19*C18</f>
         <v>18243.333333333336</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="30">
         <v>4</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="23">
         <f>C19/E12</f>
         <v>17.391304347826086</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="30">
         <v>5</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="18">
         <f>C23*100/(E13-C23)</f>
         <v>0.40002000100004997</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="30">
         <v>6</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="18">
         <f>C22-0.16*E14</f>
         <v>7208.133333333335</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
+      <c r="A26" s="32">
         <v>7</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="35">
         <f>E14/C22</f>
         <v>3.7805591083500816</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="17"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="13"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1221,24 +1391,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="44">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="44">
+        <v>192756.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="44">
+        <v>21024.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="40">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="39">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="5">
+        <f>D3*(1-D10/D9)</f>
+        <v>32999.999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <f>D11/G13</f>
+        <v>2.3333333333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Контрольные на 4-й семестр/Управление человеческими ресурсами/Расчеты.xlsx
+++ b/Контрольные на 4-й семестр/Управление человеческими ресурсами/Расчеты.xlsx
@@ -1394,7 +1394,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,8 +1524,14 @@
         <v>32999.999999999993</v>
       </c>
     </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>G13-0.16*D11</f>
+        <v>20679.999999999993</v>
+      </c>
+    </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G15">
